--- a/Project Outputs for ESP8266-Deskop_Power/Verification Report/ReportComponents/Component Cross Reference Report-ESP8266-Deskop_Power.xlsx
+++ b/Project Outputs for ESP8266-Deskop_Power/Verification Report/ReportComponents/Component Cross Reference Report-ESP8266-Deskop_Power.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D7E395-9DC1-40DF-ACDE-DE0804DD4B1C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6836B7-5FA9-40DE-9087-13BC1616C19D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{D916D278-E137-45C6-9F43-E76F2CE3F96B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{5E53679D-A7BD-49EC-9A7F-BA79FA1721A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Component Cross Reference Repor" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Comment</t>
   </si>
@@ -48,19 +48,19 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>C0603C104K8RACTU, F0603, PMPB14XPZ, AC0603FR-07100KL, MM3Z12VST1G</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 0.1 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric], Fuse PPTC SMD 0603, PMPB14XPZ, SMD Chip Resistor, 100 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, MM3Z12VST1G Zener Diode, 12V 2% 200 mW SMT 2-Pin SOD-323 | ON Semiconductor MM3Z12VST1G</t>
-  </si>
-  <si>
-    <t>C1P, C2P, F1P, Q1P, Q2P, R1P, R2P, ZD1P, ZD2P</t>
-  </si>
-  <si>
-    <t>C0603-IPC_C_No_Silk, R0603-IPC_C, DFN2020MD-MFG, R0603-MFG, SOD-323</t>
-  </si>
-  <si>
-    <t>100nF_10V, FUSE_PPTC_0603, PMPB14XPZ, 100K, MM3Z12VST1G</t>
+    <t>F0603, PMPB14XPZ, AC0603FR-07100KL, MM3Z12VST1G</t>
+  </si>
+  <si>
+    <t>Fuse PPTC SMD 0603, PMPB14XPZ, SMD Chip Resistor, 100 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, MM3Z12VST1G Zener Diode, 12V 2% 200 mW SMT 2-Pin SOD-323 | ON Semiconductor MM3Z12VST1G</t>
+  </si>
+  <si>
+    <t>F1P, Q1P, Q2P, R1P, ZD1P</t>
+  </si>
+  <si>
+    <t>R0603-IPC_C, DFN2020MD-MFG, R0603-MFG, SOD-323</t>
+  </si>
+  <si>
+    <t>FUSE_PPTC_0603, PMPB14XPZ, 100K, MM3Z12VST1G</t>
   </si>
   <si>
     <t>TCTAL1A476M8R, GRM188R61A226ME15D, C0603C104K8RACTU, T491A476M006AT, GRM188R60J226MEA0D, YELLOW, RC0603FR-0710KL, MCR03EZPFX1691, ERJ-3EKF3302V, CR0603-FX-2002ELF, MCR03EZPFX2491, SGM2019-ADJYN5G/TR</t>
@@ -93,49 +93,50 @@
     <t>100nF_6.3V, ESP8266 ESP-12-F, 10K</t>
   </si>
   <si>
-    <t>F0603, 1x06, UART_TX_RX</t>
-  </si>
-  <si>
-    <t>Fuse PPTC SMD 0603, [NoValue], UART RX/TX Pokayoke</t>
-  </si>
-  <si>
-    <t>F1U, J1U, RXTX1U</t>
-  </si>
-  <si>
-    <t>R0603-IPC_C, PinHeader_1x06_P2.54mm_Vertical_No_3D, UART_TX_RX_0603</t>
-  </si>
-  <si>
-    <t>FUSE_PPTC_0603, UART_1X06_P2.54mm_2, UART_TX_RX_0603</t>
-  </si>
-  <si>
-    <t>RC0603FR-101KL, RC0603JR-070RL, EVP-AWED4A</t>
-  </si>
-  <si>
-    <t>SMD Chip Resistor, 1 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, Zero Ohm Resistor, Jumper, 0603 [1608 Metric], Thick Film, 100 mW, 1 A, Surface Mount, 3.0MM X 2.0MM / 3.3N / 0.15MM ST</t>
-  </si>
-  <si>
-    <t>R1K, R2K, R4K, SW1K, SW2K</t>
-  </si>
-  <si>
-    <t>R0603-MFG, PANASONIC EVPAW</t>
-  </si>
-  <si>
-    <t>1K, 0R, EVP-AWED4A</t>
-  </si>
-  <si>
-    <t>2X04, RC0603FR-072K2L</t>
-  </si>
-  <si>
-    <t>[NoValue], SMD Chip Resistor, 2.2 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
-  </si>
-  <si>
-    <t>J1I, R1I, R2I</t>
-  </si>
-  <si>
-    <t>PinHeader_2x04_P2.54mm_Vertical, R0603-MFG</t>
-  </si>
-  <si>
-    <t>I2C_2X04_P2.54mm, 2.2K</t>
+    <t>1x06</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>J1U</t>
+  </si>
+  <si>
+    <t>PinHeader_1x06_P2.54mm_Vertical_No_3D</t>
+  </si>
+  <si>
+    <t>UART_1X06_P2.54mm_2</t>
+  </si>
+  <si>
+    <t>WS2812B_3535, RC0603FR-101KL, AC0603FR-07100RL, EVP-AWED4A</t>
+  </si>
+  <si>
+    <t>4 PIN SMART LED_x000D_
+WS2812 BODY 3.5MM X 3.5MM, SMD Chip Resistor, 1 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, SMD Chip Resistor, 100 Ohm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, 3.0MM X 2.0MM / 3.3N / 0.15MM ST</t>
+  </si>
+  <si>
+    <t>LED1K, R1K, R3K, R4K, SW1K, SW2K</t>
+  </si>
+  <si>
+    <t>WS2812B-Mini_3535, R0603-MFG, PANASONIC EVPAW</t>
+  </si>
+  <si>
+    <t>WS2812B_3535, 1K, 100R, EVP-AWED4A</t>
+  </si>
+  <si>
+    <t>2X04, 1x04, RC0603FR-072K2L, AC0603FR-074K7L</t>
+  </si>
+  <si>
+    <t>[NoValue], SMD Chip Resistor, 2.2 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, SMD Chip Resistor, 4.7 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
+  </si>
+  <si>
+    <t>J1I, J2I, R1I, R2I, R3I</t>
+  </si>
+  <si>
+    <t>PinHeader_2x04_P2.54mm_Vertical, PinHeader_1x04_P2.54mm_Vertical, R0603-MFG</t>
+  </si>
+  <si>
+    <t>I2C_2X04_P2.54mm, PinHeader 1x04, 2.2K, 4.7K</t>
   </si>
   <si>
     <t>BSS138NH6327, AC0603FR-07100RL, RC0603FR-0710KL</t>
@@ -144,7 +145,7 @@
     <t>Single N-Channel 60 V 3.5 Ohm 1 nC SIPMOS® Small Signal Mosfet - SOT-23, SMD Chip Resistor, 100 Ohm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, SMD Chip Resistor, 10 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
   </si>
   <si>
-    <t>Q1M, Q2M, Q3M, R1M, R2M, R3M, R4M, R5M, R6M, R7M</t>
+    <t>Q1M, Q2M, Q3M, Q4M, R1M, R2M, R3M, R4M, R5M, R6M, R7M, R8M, R9M</t>
   </si>
   <si>
     <t>SOT-23-3-IPC_C, R0603-MFG</t>
@@ -153,40 +154,34 @@
     <t>BSS138NH6327, 100R, 10K</t>
   </si>
   <si>
-    <t>C0603C104K8RACTU, CDSOT23-SRV05-4, 2X05</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 0.1 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric], TVS DIODE 5V 15V SOT23-6, [NoValue]</t>
-  </si>
-  <si>
-    <t>C1F, D1F, J1F, J2F</t>
-  </si>
-  <si>
-    <t>C0603-IPC_C_No_Silk, SOT23-6-IPC_C, Front_Pannel_2x05_P2.54mm_Horizontal_Right</t>
-  </si>
-  <si>
-    <t>100nF_10V, SRV05-4, Front_Pannel_2x05_P2.54mm</t>
-  </si>
-  <si>
-    <t>CL10A475KP8NNNC, C0603C104K8RACTU, CDSOT23-SRV05-4, 217175-0001, 2.54 Pitch, CRCW06035K10FKEA, RC0603JR-070RL</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 4.7 uF, 10 V, ± 10%, X5R, 0603 [1608 Metric], Multilayer Ceramic Capacitor, 0.1 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric], TVS DIODE 5V 15V SOT23-6, Connector USB Type C Female 6Positions 0.5mm Right Angle SMT Embossed T/R - Tape and Reel, [NoValue], SMD Chip Resistor, 5.1 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose, Zero Ohm Resistor, Jumper, 0603 [1608 Metric], Thick Film, 100 mW, 1 A, Surface Mount</t>
-  </si>
-  <si>
-    <t>C2C, C3C, C4C, C5C, C6C, D1C, D2C, J1C, J2C, J3C, R1C, R2C, R3C</t>
-  </si>
-  <si>
-    <t>C0603-IPC_C_No_Silk, SOT23-6-IPC_C, USB-Type-C-6-Pin-SMT, USB_Front_Pannel_2x05_P2.54mm_Horizontal_Right, R0603-MFG</t>
-  </si>
-  <si>
-    <t>4.7uF_10V, 100nF_10V, SRV05-4, USB-Type-C-6-Pin-SMT, USB_Front_Pannel_2x05_P2.54mm, 5.1K, 0R</t>
+    <t>2X05</t>
+  </si>
+  <si>
+    <t>J1F, J2F</t>
+  </si>
+  <si>
+    <t>Front_Pannel_2x05_P2.54mm_Horizontal_Right, Front_Pannel_2x05_P2.54mm_Horizontal_Left</t>
+  </si>
+  <si>
+    <t>Front_Pannel_2x05_P2.54mm</t>
+  </si>
+  <si>
+    <t>C1608X7R1A225K080AC, CL10A475KP8NNNC, 2.54 Pitch, 217175-0001, CRCW06035K10FKEA</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 2.2 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric], Multilayer Ceramic Capacitor, 4.7 uF, 10 V, ± 10%, X5R, 0603 [1608 Metric], [NoValue], Connector USB Type C Female 6Positions 0.5mm Right Angle SMT Embossed T/R - Tape and Reel, SMD Chip Resistor, 5.1 kOhm, ± 1%, 100 mW, 0603 [1608 Metric], Thick Film, General Purpose</t>
+  </si>
+  <si>
+    <t>C1C, C2C, J1C, J2C, J3C, R1C, R2C</t>
+  </si>
+  <si>
+    <t>C0603-IPC_C_No_Silk, USB_Front_Pannel_2x05_P2.54mm_Horizontal_Right, USB_Front_Pannel_2x05_P2.54mm_Horizontal_Left, USB-Type-C-6-Pin-SMT, R0603-MFG</t>
+  </si>
+  <si>
+    <t>2.2uF_10V, 4.7uF_10V, USB_Front_Pannel_2x05_P2.54mm, USB-Type-C-6-Pin-SMT, 5.1K</t>
   </si>
   <si>
     <t>3.2 mm</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>H1H, H2H, H3H, H4H</t>
@@ -252,10 +247,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -571,7 +569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C5FACD-5A8D-4BF6-969B-C0D246552C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394C8822-BF1B-4C70-8F29-F8CAB3D9EE27}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -581,23 +579,23 @@
     <col min="1" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -618,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,14 +676,14 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -698,7 +696,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +716,7 @@
         <v>35</v>
       </c>
       <c r="F7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -738,7 +736,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,56 +744,56 @@
         <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
